--- a/LOGS/331ef7f7-a121-4428-a707-8570ae54ebb0/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/331ef7f7-a121-4428-a707-8570ae54ebb0/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="116">
   <si>
     <t>rows</t>
   </si>
@@ -128,6 +128,24 @@
     <t>Consolidated $'000</t>
   </si>
   <si>
+    <t>None Profit before income tax from continuing operations Profit before income tax from continuing operations</t>
+  </si>
+  <si>
+    <t>None Income tax expense calculated at 30% (2022: 30%)</t>
+  </si>
+  <si>
+    <t>determining taxable Permanent differences nan</t>
+  </si>
+  <si>
+    <t>determining taxable Other adjustments nan</t>
+  </si>
+  <si>
+    <t>Effect of different tax rates of subsidiaries operating in other tax jurisdictions Effect of different tax rates of subsidiaries operating in other tax jurisdictions Effect of different tax rates of subsidiaries operating in other tax jurisdictions</t>
+  </si>
+  <si>
+    <t>Effect of different tax rates of subsidiaries operating in other tax jurisdictions Total nan</t>
+  </si>
+  <si>
     <t>None Balance at 1 April 2021</t>
   </si>
   <si>
@@ -227,22 +245,22 @@
     <t>15</t>
   </si>
   <si>
-    <t>Total Balance at the beginning of the year</t>
-  </si>
-  <si>
-    <t>Total Additional provisions recognised</t>
-  </si>
-  <si>
-    <t>Total Provisions utilised</t>
-  </si>
-  <si>
-    <t>Total Balance at the end of the year</t>
-  </si>
-  <si>
-    <t>Total Additional provisions recognised Provisions utilised</t>
-  </si>
-  <si>
-    <t>Total (308)</t>
+    <t>None Balance at the beginning of the year</t>
+  </si>
+  <si>
+    <t>None Additional provisions recognised</t>
+  </si>
+  <si>
+    <t>None Provisions utilised</t>
+  </si>
+  <si>
+    <t>None Balance at the end of the year</t>
+  </si>
+  <si>
+    <t>None Additional provisions recognised Provisions utilised</t>
+  </si>
+  <si>
+    <t>None (308)</t>
   </si>
   <si>
     <t>None Fully paid ordinary shares 5000000</t>
@@ -964,10 +982,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -976,15 +994,15 @@
         <v>1694</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -993,15 +1011,15 @@
         <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1010,15 +1028,15 @@
         <v>-108</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1027,15 +1045,15 @@
         <v>-200</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1044,15 +1062,15 @@
         <v>1467</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1061,15 +1079,15 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1078,15 +1096,15 @@
         <v>-13</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1095,15 +1113,15 @@
         <v>-268</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -1112,15 +1130,15 @@
         <v>1188</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -1129,15 +1147,15 @@
         <v>1130</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -1146,15 +1164,15 @@
         <v>478</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -1163,15 +1181,15 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -1180,15 +1198,15 @@
         <v>-449</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -1197,15 +1215,15 @@
         <v>1159</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -1214,15 +1232,15 @@
         <v>570</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -1231,15 +1249,15 @@
         <v>-2</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -1248,15 +1266,15 @@
         <v>-495</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -1265,15 +1283,15 @@
         <v>1232</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -1282,15 +1300,15 @@
         <v>2824</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -1299,15 +1317,15 @@
         <v>559</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -1316,15 +1334,15 @@
         <v>-108</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -1333,15 +1351,15 @@
         <v>-649</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -1350,15 +1368,15 @@
         <v>2626</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -1367,15 +1385,15 @@
         <v>572</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -1384,15 +1402,15 @@
         <v>-15</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -1401,15 +1419,15 @@
         <v>-763</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -1418,7 +1436,7 @@
         <v>2420</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1453,7 +1471,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1462,12 +1480,12 @@
         <v>2420</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1476,12 +1494,12 @@
         <v>-1232</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1490,12 +1508,12 @@
         <v>1188</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1504,12 +1522,12 @@
         <v>5448</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1518,12 +1536,12 @@
         <v>-4216</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1532,12 +1550,12 @@
         <v>1232</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1546,12 +1564,12 @@
         <v>2420</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1560,12 +1578,12 @@
         <v>3656</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1574,12 +1592,12 @@
         <v>-2189</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -1588,12 +1606,12 @@
         <v>1467</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -1602,12 +1620,12 @@
         <v>5341</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -1616,12 +1634,12 @@
         <v>-4182</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1630,12 +1648,12 @@
         <v>1159</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -1644,7 +1662,7 @@
         <v>2626</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1691,10 +1709,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1703,15 +1721,15 @@
         <v>13273</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1720,15 +1738,15 @@
         <v>-2384</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1737,15 +1755,15 @@
         <v>392</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1754,15 +1772,15 @@
         <v>11281</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1771,15 +1789,15 @@
         <v>-2179</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1788,15 +1806,15 @@
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1805,15 +1823,15 @@
         <v>-564</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1822,15 +1840,15 @@
         <v>8640</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1839,15 +1857,15 @@
         <v>15551</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -1856,15 +1874,15 @@
         <v>-2278</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -1873,15 +1891,15 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -1890,15 +1908,15 @@
         <v>13273</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1907,15 +1925,15 @@
         <v>-2384</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -1924,15 +1942,15 @@
         <v>392</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -1941,15 +1959,15 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -1958,7 +1976,7 @@
         <v>11281</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1993,7 +2011,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2002,12 +2020,12 @@
         <v>3173</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2016,12 +2034,12 @@
         <v>10633</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2030,12 +2048,12 @@
         <v>8388</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2044,12 +2062,12 @@
         <v>967</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2058,12 +2076,12 @@
         <v>1626</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -2072,12 +2090,12 @@
         <v>24787</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2086,12 +2104,12 @@
         <v>3000</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -2100,12 +2118,12 @@
         <v>5951</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -2114,12 +2132,12 @@
         <v>12887</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -2128,12 +2146,12 @@
         <v>626</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -2142,12 +2160,12 @@
         <v>1645</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -2156,7 +2174,7 @@
         <v>24109</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2221,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2212,12 +2230,12 @@
         <v>7011</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2226,7 +2244,7 @@
         <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2240,12 +2258,12 @@
         <v>7117</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2254,12 +2272,12 @@
         <v>516</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2268,12 +2286,12 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -2282,12 +2300,12 @@
         <v>2283</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -2296,12 +2314,12 @@
         <v>2853</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -2310,12 +2328,12 @@
         <v>6803</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -2324,7 +2342,7 @@
         <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2338,12 +2356,12 @@
         <v>6891</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -2352,12 +2370,12 @@
         <v>781</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -2366,12 +2384,12 @@
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -2380,12 +2398,12 @@
         <v>2328</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -2394,7 +2412,7 @@
         <v>3186</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2429,7 +2447,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -2441,12 +2459,12 @@
         <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -2458,12 +2476,12 @@
         <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -2475,12 +2493,12 @@
         <v>-88</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -2492,12 +2510,12 @@
         <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -2509,12 +2527,12 @@
         <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -2526,12 +2544,12 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -2543,12 +2561,12 @@
         <v>-38</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -2560,12 +2578,12 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -2577,12 +2595,12 @@
         <v>2328</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -2594,12 +2612,12 @@
         <v>263</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -2611,12 +2629,12 @@
         <v>-150</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -2628,7 +2646,7 @@
         <v>2283</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2869,10 +2887,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2881,15 +2899,15 @@
         <v>5000</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2898,15 +2916,15 @@
         <v>5000000</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -2915,7 +2933,7 @@
         <v>5000</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2950,7 +2968,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2959,12 +2977,12 @@
         <v>38383</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2973,12 +2991,12 @@
         <v>14621</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2987,12 +3005,12 @@
         <v>63171</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3001,12 +3019,12 @@
         <v>116175</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3015,12 +3033,12 @@
         <v>38908</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3029,12 +3047,12 @@
         <v>32164</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3043,12 +3061,12 @@
         <v>34523</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3057,7 +3075,7 @@
         <v>105595</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3092,7 +3110,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3101,12 +3119,12 @@
         <v>288</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3115,12 +3133,12 @@
         <v>1141</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3129,12 +3147,12 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3143,12 +3161,12 @@
         <v>1470</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3157,12 +3175,12 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3171,12 +3189,12 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3185,12 +3203,12 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3199,7 +3217,7 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3258,10 +3276,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3270,15 +3288,15 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -3287,7 +3305,7 @@
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3322,7 +3340,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -3334,12 +3352,12 @@
         <v>1802</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -3351,7 +3369,7 @@
         <v>2067</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3386,10 +3404,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3398,15 +3416,15 @@
         <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3415,15 +3433,15 @@
         <v>1218</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3432,15 +3450,15 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3449,15 +3467,15 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -3466,15 +3484,15 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -3483,15 +3501,15 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -3500,15 +3518,15 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -3517,15 +3535,15 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -3534,15 +3552,15 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -3551,15 +3569,15 @@
         <v>991</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -3568,15 +3586,15 @@
         <v>407</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -3585,15 +3603,15 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -3602,15 +3620,15 @@
         <v>380</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -3619,15 +3637,15 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -3636,15 +3654,15 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -3653,15 +3671,15 @@
         <v>949</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -3670,15 +3688,15 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -3687,15 +3705,15 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -3704,15 +3722,15 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -3721,15 +3739,15 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -3738,15 +3756,15 @@
         <v>2823</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -3755,15 +3773,15 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -3772,15 +3790,15 @@
         <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -3789,15 +3807,15 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -3806,15 +3824,15 @@
         <v>202</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -3823,15 +3841,15 @@
         <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -3840,15 +3858,15 @@
         <v>1162</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -3857,15 +3875,15 @@
         <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -3874,15 +3892,15 @@
         <v>31160</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -3891,15 +3909,15 @@
         <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -3908,15 +3926,15 @@
         <v>8255</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C33">
         <v>2022</v>
@@ -3925,15 +3943,15 @@
         <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C34">
         <v>2022</v>
@@ -3942,15 +3960,15 @@
         <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C35">
         <v>2022</v>
@@ -3959,15 +3977,15 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C36">
         <v>2022</v>
@@ -3976,15 +3994,15 @@
         <v>896</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>2022</v>
@@ -3993,15 +4011,15 @@
         <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C38">
         <v>2022</v>
@@ -4010,15 +4028,15 @@
         <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C39">
         <v>2022</v>
@@ -4027,15 +4045,15 @@
         <v>218</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C40">
         <v>2022</v>
@@ -4044,15 +4062,15 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>2022</v>
@@ -4061,15 +4079,15 @@
         <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C42">
         <v>2022</v>
@@ -4078,15 +4096,15 @@
         <v>584</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C43">
         <v>2022</v>
@@ -4095,15 +4113,15 @@
         <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>2022</v>
@@ -4112,15 +4130,15 @@
         <v>295</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C45">
         <v>2022</v>
@@ -4129,15 +4147,15 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C46">
         <v>2022</v>
@@ -4146,15 +4164,15 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C47">
         <v>2022</v>
@@ -4163,15 +4181,15 @@
         <v>2259</v>
       </c>
       <c r="E47" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C48">
         <v>2022</v>
@@ -4180,15 +4198,15 @@
         <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C49">
         <v>2022</v>
@@ -4197,15 +4215,15 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C50">
         <v>2022</v>
@@ -4214,15 +4232,15 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C51">
         <v>2022</v>
@@ -4231,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4881,12 +4899,198 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>11119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>3336</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>-15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>3376</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>10746</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>3224</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>3354</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
